--- a/Report/SonarLint.v.0.2.xlsx
+++ b/Report/SonarLint.v.0.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuamit\Downloads\fwdjavafundamentalprojectepitrello\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my HP data\test\eclipse_workspace\new_workspace\final\EPITRELLO-master\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B52E8F2-0927-488C-8321-278F4581794B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C435903-223F-4E21-8B8F-3E769F2268C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAB998D2-1B4B-4EB0-9CEB-034DB3B82394}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="25">
   <si>
     <t>Resource</t>
   </si>
@@ -45,15 +45,9 @@
     <t>DBManager.java</t>
   </si>
   <si>
-    <t>7 hours ago</t>
-  </si>
-  <si>
     <t>Replace this use of System.out or System.err by a logger.</t>
   </si>
   <si>
-    <t>8 hours ago</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -78,13 +72,40 @@
     <t>Complete the task associated to this TODO comment.</t>
   </si>
   <si>
-    <t>Define a constant instead of duplicating this literal "AmirAli" 3 times.</t>
-  </si>
-  <si>
-    <t>Define a constant instead of duplicating this literal "Do Everything" 5 times.</t>
-  </si>
-  <si>
-    <t>Define a constant instead of duplicating this literal "Have fun" 3 times.</t>
+    <t>32 minutes ago</t>
+  </si>
+  <si>
+    <t>A "NullPointerException" could be thrown; "connection" is nullable here.</t>
+  </si>
+  <si>
+    <t>1 day ago</t>
+  </si>
+  <si>
+    <t>EpitrelloDataServericeTest.java</t>
+  </si>
+  <si>
+    <t>1 hour ago</t>
+  </si>
+  <si>
+    <t>Remove this useless assignment to local variable "status".</t>
+  </si>
+  <si>
+    <t>Define a constant instead of duplicating this literal "Have fun" 4 times.</t>
+  </si>
+  <si>
+    <t>Define a constant instead of duplicating this literal "list1" 3 times.</t>
+  </si>
+  <si>
+    <t>Define a constant instead of duplicating this literal "Success" 8 times.</t>
+  </si>
+  <si>
+    <t>Define a constant instead of duplicating this literal "Do Everything" 8 times.</t>
+  </si>
+  <si>
+    <t>Define a constant instead of duplicating this literal "Write the whole code" 4 times.</t>
+  </si>
+  <si>
+    <t>Define a constant instead of duplicating this literal "User1" 5 times.</t>
   </si>
 </sst>
 </file>
@@ -467,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECDB7FB-64B5-41C9-B2C7-B3DDB78D15CD}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -496,10 +517,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,10 +539,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,10 +550,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,10 +561,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,428 +594,439 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
